--- a/data_output/prism_passive/all_passive_out_strain_AT_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>29.960220382435658</v>
+        <v>29.960220497003618</v>
       </c>
       <c r="C2">
-        <v>16.599489809723149</v>
+        <v>16.59948980689845</v>
       </c>
       <c r="D2">
-        <v>44.152197202233133</v>
+        <v>44.152197277757274</v>
       </c>
       <c r="E2">
-        <v>20.449841389134885</v>
+        <v>20.449841456510214</v>
       </c>
       <c r="F2">
-        <v>169.32847611511119</v>
+        <v>169.32847611676257</v>
       </c>
       <c r="G2">
-        <v>5.9718323710700636</v>
+        <v>5.9718323970830793</v>
       </c>
       <c r="H2">
-        <v>1.6437022885920023</v>
+        <v>1.6437023384245526</v>
       </c>
       <c r="I2">
-        <v>9.6075551751399981</v>
+        <v>9.6075552091178871</v>
       </c>
       <c r="J2">
-        <v>4.0807613422653999</v>
+        <v>4.0807613910486911</v>
       </c>
       <c r="K2">
-        <v>7.8629842261886598</v>
+        <v>7.8629842826663747</v>
       </c>
       <c r="L2">
-        <v>1.353867544276969</v>
+        <v>1.3538675833441483</v>
       </c>
       <c r="N2">
-        <v>1.0771255818636969</v>
+        <v>1.0771256911950833</v>
       </c>
       <c r="O2">
-        <v>-8.9276936513405172</v>
+        <v>-8.9276935630472298</v>
       </c>
       <c r="P2">
-        <v>54.484734057321674</v>
+        <v>54.484734065349947</v>
       </c>
       <c r="Q2">
-        <v>28.68865758260154</v>
+        <v>28.68865763367787</v>
       </c>
       <c r="S2">
-        <v>17.394416377344641</v>
+        <v>17.394416406510153</v>
       </c>
       <c r="V2">
-        <v>12.804175828522105</v>
+        <v>12.804175849590388</v>
       </c>
       <c r="W2">
-        <v>-4.1976675342714636</v>
+        <v>-4.1976675173074707</v>
       </c>
       <c r="X2">
-        <v>-7.282201059842504</v>
+        <v>-7.2822009855524961</v>
       </c>
       <c r="AA2">
-        <v>-12.580891086150956</v>
+        <v>-12.580890994267262</v>
       </c>
       <c r="AB2">
-        <v>12.630146582131827</v>
+        <v>12.630146637889991</v>
       </c>
       <c r="AC2">
-        <v>2.5723641137466373</v>
+        <v>2.5723641209605965</v>
       </c>
       <c r="AD2">
-        <v>24.656418889360062</v>
+        <v>24.656418965487063</v>
       </c>
       <c r="AE2">
-        <v>77.11633612579034</v>
+        <v>77.116336139251345</v>
       </c>
       <c r="AF2">
-        <v>12.657997595789658</v>
+        <v>12.657997600746473</v>
       </c>
       <c r="AG2">
-        <v>0.29756964932323104</v>
+        <v>0.29756970511737008</v>
       </c>
       <c r="AH2">
-        <v>13.970512164991744</v>
+        <v>13.970512179727304</v>
       </c>
       <c r="AI2">
-        <v>-7.6926969968035319</v>
+        <v>-7.6926969638941065</v>
       </c>
       <c r="AJ2">
-        <v>10.050791354013231</v>
+        <v>10.050791370842886</v>
       </c>
       <c r="AK2">
-        <v>3.7658762793487912</v>
+        <v>3.765876304632481</v>
       </c>
       <c r="AL2">
-        <v>4.6801137445838492</v>
+        <v>4.6801138028866802</v>
       </c>
       <c r="AM2">
-        <v>3.2254412131613917</v>
+        <v>3.2254413229499139</v>
       </c>
       <c r="AN2">
-        <v>6.1041542397825062</v>
+        <v>6.1041543632944144</v>
       </c>
       <c r="AO2">
-        <v>16.609830271064432</v>
+        <v>16.609830368712263</v>
       </c>
       <c r="AQ2">
-        <v>6.546150986507385</v>
+        <v>6.5461510620224939</v>
       </c>
       <c r="AR2">
-        <v>11.564591739594654</v>
+        <v>11.564591743704968</v>
       </c>
       <c r="AS2">
-        <v>-2.7664378137228129</v>
+        <v>-2.766437804863882</v>
       </c>
       <c r="AU2">
-        <v>-4.9382731873218601E-2</v>
+        <v>-4.9382728125691236E-2</v>
       </c>
       <c r="AV2">
-        <v>17.22439722487761</v>
+        <v>17.224397330754321</v>
       </c>
       <c r="AW2">
-        <v>0.11466832833347707</v>
+        <v>0.1146683884165484</v>
       </c>
       <c r="AX2">
-        <v>5.7955659145234018</v>
+        <v>5.7955660336435946</v>
       </c>
       <c r="AY2">
-        <v>-6.4768683055402887</v>
+        <v>-6.4768682748791635</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>23.237442491838927</v>
+        <v>23.237442601378806</v>
       </c>
       <c r="C3">
-        <v>5.9598857540849419</v>
+        <v>5.9598857972728956</v>
       </c>
       <c r="E3">
-        <v>17.922414463799459</v>
+        <v>17.922414501913796</v>
       </c>
       <c r="F3">
-        <v>23.080711358212419</v>
+        <v>23.080711409656143</v>
       </c>
       <c r="G3">
-        <v>1.4787225846132959</v>
+        <v>1.4787226355471577</v>
       </c>
       <c r="H3">
-        <v>1.163816561295248</v>
+        <v>1.1638166040761293</v>
       </c>
       <c r="J3">
-        <v>3.8917364366030327</v>
+        <v>3.8917364842037094</v>
       </c>
       <c r="K3">
-        <v>-11.587269854950081</v>
+        <v>-11.587269813949526</v>
       </c>
       <c r="L3">
-        <v>-26.178858319518199</v>
+        <v>-26.178858270799626</v>
       </c>
       <c r="M3">
-        <v>32.46934476993659</v>
+        <v>32.469685567584698</v>
       </c>
       <c r="N3">
-        <v>5.6594275144999706</v>
+        <v>5.659427608389656</v>
       </c>
       <c r="P3">
-        <v>3.3349398983127601</v>
+        <v>3.3349399996813203</v>
       </c>
       <c r="Q3">
-        <v>24.488757978123044</v>
+        <v>24.48875807898775</v>
       </c>
       <c r="R3">
-        <v>16.674225647639936</v>
+        <v>16.67422570525553</v>
       </c>
       <c r="W3">
-        <v>-1.7938716630032645</v>
+        <v>-1.7938716695900296</v>
       </c>
       <c r="AA3">
-        <v>-5.2840050968758216</v>
+        <v>-5.2840050017167224</v>
       </c>
       <c r="AB3">
-        <v>7.7906195574215982</v>
+        <v>7.7906195707278121</v>
       </c>
       <c r="AC3">
-        <v>-1.1831115159209271</v>
+        <v>-1.183111456483545</v>
       </c>
       <c r="AD3">
-        <v>19.558401096800946</v>
+        <v>19.558401190347027</v>
       </c>
       <c r="AE3">
-        <v>0.49241401692712833</v>
+        <v>0.49241405638157193</v>
       </c>
       <c r="AF3">
-        <v>2.6582530707231395</v>
+        <v>2.6582531084516572</v>
       </c>
       <c r="AG3">
-        <v>-8.9624687905152829</v>
+        <v>-8.9624687550624174</v>
       </c>
       <c r="AH3">
-        <v>-14.950026252562465</v>
+        <v>-14.950026242493697</v>
       </c>
       <c r="AI3">
-        <v>5.1455841499674504</v>
+        <v>5.1455842092549071</v>
       </c>
       <c r="AJ3">
-        <v>-5.7524830290816791</v>
+        <v>-5.7524829676618268</v>
       </c>
       <c r="AK3">
-        <v>-13.579847464403505</v>
+        <v>-13.579847421075437</v>
       </c>
       <c r="AL3">
-        <v>-10.023173403089499</v>
+        <v>-10.023173343782812</v>
       </c>
       <c r="AM3">
-        <v>6.852288501143784</v>
+        <v>6.8522885824499236</v>
       </c>
       <c r="AN3">
-        <v>22.123379344788454</v>
+        <v>22.123379424222978</v>
       </c>
       <c r="AO3">
-        <v>1.9172156354577166</v>
+        <v>1.9172157202568021</v>
       </c>
       <c r="AP3">
-        <v>8.0344684481852511</v>
+        <v>8.0344685239927003</v>
       </c>
       <c r="AQ3">
-        <v>2.1514133078214597</v>
+        <v>2.1514133440936023</v>
       </c>
       <c r="AS3">
-        <v>12.144491787334415</v>
+        <v>12.144491808084309</v>
       </c>
       <c r="AT3">
-        <v>7.4995085324271376</v>
+        <v>7.4995085895085047</v>
       </c>
       <c r="AU3">
-        <v>-5.1285157193849731</v>
+        <v>-5.1285156649836026</v>
       </c>
       <c r="AV3">
-        <v>-3.803885533988391</v>
+        <v>-3.8038854552544006</v>
       </c>
       <c r="AW3">
-        <v>11.409206071733319</v>
+        <v>11.409206164325047</v>
       </c>
       <c r="AX3">
-        <v>12.280427477241002</v>
+        <v>12.280427584640892</v>
       </c>
       <c r="AY3">
-        <v>8.7663692681868906</v>
+        <v>8.766369374767649</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_AT_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,256 +401,268 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>29.960220497003618</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>16.59948980689845</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>44.152197277757274</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>20.449841456510214</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>169.32847611676257</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>5.9718323970830793</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1.6437023384245526</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>9.6075552091178871</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.0807613910486911</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>7.8629842826663747</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.3538675833441483</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.0771256911950833</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-8.9276935630472298</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>54.484734065349947</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>28.68865763367787</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>17.394416406510153</v>
+        <v>17.394344656707602</v>
       </c>
       <c r="V2">
         <v>12.804175849590388</v>
       </c>
       <c r="W2">
-        <v>-4.1976675173074707</v>
+        <v>-4.1977634827976145</v>
       </c>
       <c r="X2">
-        <v>-7.2822009855524961</v>
+        <v>-7.2821040405276847</v>
       </c>
       <c r="AA2">
-        <v>-12.580890994267262</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>12.630146637889991</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2.5723641209605965</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>24.656418965487063</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>77.116336139251345</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>12.657997600746473</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.29756970511737008</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>13.970512179727304</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>-7.6926969638941065</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>10.050791370842886</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>3.765876304632481</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>4.6801138028866802</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>3.2254413229499139</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>6.1041543632944144</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>16.609830368712263</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>6.5461510620224939</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>11.564591743704968</v>
+        <v>11.564657607456091</v>
       </c>
       <c r="AS2">
         <v>-2.766437804863882</v>
       </c>
       <c r="AU2">
-        <v>-4.9382728125691236E-2</v>
+        <v>-4.9326518551896521E-2</v>
       </c>
       <c r="AV2">
-        <v>17.224397330754321</v>
+        <v>17.224290705924993</v>
       </c>
       <c r="AW2">
-        <v>0.1146683884165484</v>
+        <v>0.11477196281583833</v>
       </c>
       <c r="AX2">
-        <v>5.7955660336435946</v>
+        <v>5.7956653715968738</v>
       </c>
       <c r="AY2">
-        <v>-6.4768682748791635</v>
+        <v>-6.4768150058507334</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>23.237442601378806</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>5.9598857972728956</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>17.922414501913796</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>23.080711409656143</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.4787226355471577</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.1638166040761293</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>3.8917364842037094</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-11.587269813949526</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>-26.178858270799626</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>32.469685567584698</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>5.659427608389656</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.3349399996813203</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>24.48875807898775</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>16.67422570525553</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>-1.7938716695900296</v>
+        <v>-1.7938242225917236</v>
       </c>
       <c r="AA3">
-        <v>-5.2840050017167224</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>7.7906195707278121</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-1.183111456483545</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>19.558401190347027</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.49241405638157193</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.6582531084516572</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-8.9624687550624174</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>-14.950026242493697</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>5.1455842092549071</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-5.7524829676618268</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>-13.579847421075437</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-10.023173343782812</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>6.8522885824499236</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>22.123379424222978</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1.9172157202568021</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>8.0344685239927003</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>2.1514133440936023</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>12.144491808084309</v>
+        <v>12.144542035756148</v>
       </c>
       <c r="AT3">
         <v>7.4995085895085047</v>
       </c>
       <c r="AU3">
-        <v>-5.1285156649836026</v>
+        <v>-5.1284602743511236</v>
       </c>
       <c r="AV3">
-        <v>-3.8038854552544006</v>
+        <v>-3.803840648576732</v>
       </c>
       <c r="AW3">
         <v>11.409206164325047</v>
       </c>
       <c r="AX3">
-        <v>12.280427584640892</v>
+        <v>0.85722162562133275</v>
       </c>
       <c r="AY3">
-        <v>8.766369374767649</v>
+        <v>-49.337892612062241</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_AT_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>29.960138505285904</v>
-      </c>
-      <c r="C2">
-        <v>2.4625955564415891</v>
+        <v>-8.9276162598221021</v>
       </c>
       <c r="D2">
-        <v>44.152276294519098</v>
+        <v>6.1040602419814824</v>
       </c>
       <c r="E2">
-        <v>20.44974608344808</v>
+        <v>6.5460661122605472</v>
       </c>
       <c r="F2">
         <v>169.32847611511119</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>23.237442491838927</v>
-      </c>
       <c r="C3">
-        <v>-6.4683389778713574</v>
+        <v>16.67413550689594</v>
+      </c>
+      <c r="D3">
+        <v>22.123273101918144</v>
       </c>
       <c r="E3">
-        <v>17.922493296869053</v>
+        <v>2.3701403068050841</v>
       </c>
       <c r="F3">
         <v>23.080711358212419</v>

--- a/data_output/prism_passive/all_passive_out_strain_AT_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>29.960138505285904</v>
+        <v>44.519599243087939</v>
       </c>
       <c r="C2">
-        <v>2.4625955564415891</v>
+        <v>-8.9276162598221021</v>
       </c>
       <c r="D2">
-        <v>44.152276294519098</v>
+        <v>-3.3074225400202302</v>
       </c>
       <c r="E2">
-        <v>20.44974608344808</v>
+        <v>6.1040602419814824</v>
       </c>
       <c r="F2">
         <v>169.32847611511119</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>23.237442491838927</v>
-      </c>
-      <c r="C3">
-        <v>-6.4683389778713574</v>
+        <v>44.130543730790535</v>
+      </c>
+      <c r="D3">
+        <v>-20.962144060874568</v>
       </c>
       <c r="E3">
-        <v>17.922493296869053</v>
+        <v>22.123273101918144</v>
       </c>
       <c r="F3">
         <v>23.080711358212419</v>

--- a/data_output/prism_passive/all_passive_out_strain_AT_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_AT_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>29.960138619853797</v>
+      </c>
+      <c r="C2">
+        <v>2.4625955539593658</v>
+      </c>
+      <c r="D2">
+        <v>44.152276370043282</v>
+      </c>
+      <c r="E2">
+        <v>20.449746150823351</v>
+      </c>
+      <c r="F2">
+        <v>169.32847611676257</v>
+      </c>
+      <c r="G2">
+        <v>5.9717440150368493</v>
+      </c>
+      <c r="H2">
+        <v>1.6437023384245526</v>
+      </c>
+      <c r="I2">
+        <v>9.6076273691089646</v>
+      </c>
+      <c r="J2">
+        <v>4.0807172971781114</v>
+      </c>
+      <c r="K2">
+        <v>-17.519616071230548</v>
+      </c>
+      <c r="L2">
+        <v>1.3538367450968243</v>
+      </c>
+      <c r="N2">
         <v>44.519599243087939</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>-8.9276162598221021</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>54.484734065349947</v>
+      </c>
+      <c r="Q2">
+        <v>-33.177997500198266</v>
+      </c>
+      <c r="S2">
+        <v>17.394344656707602</v>
+      </c>
+      <c r="V2">
+        <v>12.804175849590388</v>
+      </c>
+      <c r="W2">
+        <v>-4.1977634827976145</v>
+      </c>
+      <c r="X2">
+        <v>-7.2821040405276847</v>
+      </c>
+      <c r="AA2">
+        <v>-12.580942743936971</v>
+      </c>
+      <c r="AB2">
+        <v>43.119032780266878</v>
+      </c>
+      <c r="AC2">
+        <v>2.5724215240539428</v>
+      </c>
+      <c r="AD2">
+        <v>24.656521586887788</v>
+      </c>
+      <c r="AE2">
+        <v>77.116336139251345</v>
+      </c>
+      <c r="AF2">
+        <v>12.658094011848659</v>
+      </c>
+      <c r="AG2">
+        <v>0.29753248438549068</v>
+      </c>
+      <c r="AH2">
+        <v>13.970585024981153</v>
+      </c>
+      <c r="AI2">
+        <v>-7.6926969638941065</v>
+      </c>
+      <c r="AJ2">
+        <v>7.4311639686681419</v>
+      </c>
+      <c r="AK2">
+        <v>3.765876304632481</v>
+      </c>
+      <c r="AL2">
+        <v>4.6801820983622031</v>
+      </c>
+      <c r="AM2">
         <v>-3.3074225400202302</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>6.1040602419814824</v>
       </c>
-      <c r="F2">
-        <v>169.32847611511119</v>
-      </c>
-      <c r="G2">
-        <v>5.9717439890238557</v>
-      </c>
-      <c r="H2">
-        <v>1.6437022885920023</v>
-      </c>
-      <c r="I2">
-        <v>9.6076273351310526</v>
-      </c>
-      <c r="J2">
-        <v>4.0807172483948397</v>
-      </c>
-      <c r="K2">
-        <v>-17.519616114417776</v>
-      </c>
-      <c r="L2">
-        <v>1.3538367060296568</v>
-      </c>
-      <c r="N2">
-        <v>44.519599086766434</v>
-      </c>
-      <c r="O2">
-        <v>-8.927616348115464</v>
-      </c>
-      <c r="P2">
-        <v>54.484734057321674</v>
-      </c>
-      <c r="Q2">
-        <v>-33.177997526719821</v>
-      </c>
-      <c r="S2">
-        <v>17.394344627542107</v>
-      </c>
-      <c r="V2">
-        <v>12.804175828522105</v>
-      </c>
-      <c r="W2">
-        <v>-4.1977634997615905</v>
-      </c>
-      <c r="X2">
-        <v>-7.2821041148177699</v>
-      </c>
-      <c r="AA2">
-        <v>-12.580942835820608</v>
-      </c>
-      <c r="AB2">
-        <v>43.119032709415016</v>
-      </c>
-      <c r="AC2">
-        <v>2.5724215168399791</v>
-      </c>
-      <c r="AD2">
-        <v>24.656521510760719</v>
-      </c>
-      <c r="AE2">
-        <v>77.11633612579034</v>
-      </c>
-      <c r="AF2">
-        <v>12.65809400689184</v>
-      </c>
-      <c r="AG2">
-        <v>0.29753242859137236</v>
-      </c>
-      <c r="AH2">
-        <v>13.970585010245587</v>
-      </c>
-      <c r="AI2">
-        <v>-7.6926969968035319</v>
-      </c>
-      <c r="AJ2">
-        <v>7.4311639522390989</v>
-      </c>
-      <c r="AK2">
-        <v>3.7658762793487912</v>
-      </c>
-      <c r="AL2">
-        <v>4.6801820400593348</v>
-      </c>
-      <c r="AM2">
-        <v>-3.3074226428605287</v>
-      </c>
-      <c r="AN2">
-        <v>6.1040601184696834</v>
-      </c>
       <c r="AO2">
-        <v>16.609974987670213</v>
+        <v>16.609975085318162</v>
       </c>
       <c r="AQ2">
-        <v>6.546066036745497</v>
+        <v>6.5460661122605472</v>
       </c>
       <c r="AR2">
-        <v>11.564657603345777</v>
+        <v>11.564657607456091</v>
       </c>
       <c r="AS2">
-        <v>-2.7664378137228129</v>
+        <v>-2.766437804863882</v>
       </c>
       <c r="AU2">
-        <v>-4.9326522299425989E-2</v>
+        <v>-4.9326518551896521E-2</v>
       </c>
       <c r="AV2">
-        <v>17.224290600048377</v>
+        <v>17.224290705924993</v>
       </c>
       <c r="AW2">
-        <v>0.11477190273270484</v>
+        <v>0.11477196281583833</v>
       </c>
       <c r="AX2">
-        <v>5.7956652524765691</v>
+        <v>5.7956653715968738</v>
       </c>
       <c r="AY2">
-        <v>-6.4768150365118764</v>
+        <v>-6.4768150058507334</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>23.237442601378806</v>
+      </c>
+      <c r="C3">
+        <v>-6.4683389397489952</v>
+      </c>
+      <c r="E3">
+        <v>17.922493334983415</v>
+      </c>
+      <c r="F3">
+        <v>23.080711409656143</v>
+      </c>
+      <c r="G3">
+        <v>1.4788008628039289</v>
+      </c>
+      <c r="H3">
+        <v>1.1638547349944797</v>
+      </c>
+      <c r="J3">
+        <v>-10.102336750657894</v>
+      </c>
+      <c r="K3">
+        <v>-11.587269813949526</v>
+      </c>
+      <c r="L3">
+        <v>-26.178858270799626</v>
+      </c>
+      <c r="M3">
+        <v>32.469559105451211</v>
+      </c>
+      <c r="N3">
         <v>44.130543730790535</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>3.3349399996813203</v>
+      </c>
+      <c r="Q3">
+        <v>24.488885134524338</v>
+      </c>
+      <c r="R3">
+        <v>16.67413550689594</v>
+      </c>
+      <c r="W3">
+        <v>-1.7938242225917236</v>
+      </c>
+      <c r="AA3">
+        <v>-5.2839321561483859</v>
+      </c>
+      <c r="AB3">
+        <v>7.0086994451728737</v>
+      </c>
+      <c r="AC3">
+        <v>-1.1831703929624371</v>
+      </c>
+      <c r="AD3">
+        <v>19.558474177980791</v>
+      </c>
+      <c r="AE3">
+        <v>0.49249263189362197</v>
+      </c>
+      <c r="AF3">
+        <v>2.6582531084516572</v>
+      </c>
+      <c r="AG3">
+        <v>-8.9624687550624174</v>
+      </c>
+      <c r="AH3">
+        <v>-14.813499702476996</v>
+      </c>
+      <c r="AI3">
+        <v>1.4196961450467867</v>
+      </c>
+      <c r="AJ3">
+        <v>-5.7524829676618268</v>
+      </c>
+      <c r="AK3">
+        <v>-13.579872412835789</v>
+      </c>
+      <c r="AL3">
+        <v>-10.023173343782812</v>
+      </c>
+      <c r="AM3">
         <v>-20.962144060874568</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>22.123273101918144</v>
       </c>
-      <c r="F3">
-        <v>23.080711358212419</v>
-      </c>
-      <c r="G3">
-        <v>1.478800811870028</v>
-      </c>
-      <c r="H3">
-        <v>1.1638546922135822</v>
-      </c>
-      <c r="J3">
-        <v>-10.102336791846826</v>
-      </c>
-      <c r="K3">
-        <v>-11.587269854950081</v>
-      </c>
-      <c r="L3">
-        <v>-26.178858319518199</v>
-      </c>
-      <c r="M3">
-        <v>32.469218308128447</v>
-      </c>
-      <c r="N3">
-        <v>44.13054360271515</v>
-      </c>
-      <c r="P3">
-        <v>3.3349398983127601</v>
-      </c>
-      <c r="Q3">
-        <v>24.488885033659528</v>
-      </c>
-      <c r="R3">
-        <v>16.674135449280389</v>
-      </c>
-      <c r="W3">
-        <v>-1.7938242160049553</v>
-      </c>
-      <c r="AA3">
-        <v>-5.2839322513075579</v>
-      </c>
-      <c r="AB3">
-        <v>7.0086994319631835</v>
-      </c>
-      <c r="AC3">
-        <v>-1.1831704523997841</v>
-      </c>
-      <c r="AD3">
-        <v>19.558474084434653</v>
-      </c>
-      <c r="AE3">
-        <v>0.4924925924391475</v>
-      </c>
-      <c r="AF3">
-        <v>2.6582530707231395</v>
-      </c>
-      <c r="AG3">
-        <v>-8.9624687905152829</v>
-      </c>
-      <c r="AH3">
-        <v>-14.813499725936028</v>
-      </c>
-      <c r="AI3">
-        <v>1.4196960878602121</v>
-      </c>
-      <c r="AJ3">
-        <v>-5.7524830290816791</v>
-      </c>
-      <c r="AK3">
-        <v>-13.579872456163844</v>
-      </c>
-      <c r="AL3">
-        <v>-10.023173403089499</v>
-      </c>
-      <c r="AM3">
-        <v>-20.962144121016124</v>
-      </c>
-      <c r="AN3">
-        <v>22.123273022483691</v>
-      </c>
       <c r="AO3">
-        <v>1.9171128340616441</v>
+        <v>1.9171129188606437</v>
       </c>
       <c r="AP3">
-        <v>8.0345600091828722</v>
+        <v>8.0345600849903871</v>
       </c>
       <c r="AQ3">
-        <v>2.3701402815234767</v>
+        <v>2.3701403068050841</v>
       </c>
       <c r="AS3">
-        <v>12.144542015006245</v>
+        <v>12.144542035756148</v>
       </c>
       <c r="AT3">
-        <v>7.4995085324271376</v>
+        <v>7.4995085895085047</v>
       </c>
       <c r="AU3">
-        <v>-5.1284603287525261</v>
+        <v>-5.1284602743511236</v>
       </c>
       <c r="AV3">
-        <v>-3.8038407273107588</v>
+        <v>-3.803840648576732</v>
       </c>
       <c r="AW3">
-        <v>11.409206071733319</v>
+        <v>11.409206164325047</v>
       </c>
       <c r="AX3">
-        <v>0.85722152914811145</v>
+        <v>0.85722162562133275</v>
       </c>
       <c r="AY3">
-        <v>-49.337892661706313</v>
+        <v>-49.337892612062241</v>
       </c>
     </row>
   </sheetData>
